--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TESTINGXPERTS\IdeaProjects\Wounded_warrior_project_2023\Wounded-Warrior\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wounded_warrior_project_2023\Wounded_warrior_project_2023\Wounded-Warrior\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="9195" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="11340" yWindow="0" windowWidth="21000" windowHeight="9195" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WebTestData" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="RestAPITestData" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="cheddarUp" sheetId="7" r:id="rId7"/>
-    <sheet name="WelMart" sheetId="8" r:id="rId8"/>
+    <sheet name="WWP" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="162">
   <si>
     <t>TestData</t>
   </si>
@@ -445,15 +445,6 @@
     <t>tester123</t>
   </si>
   <si>
-    <t>TestData1</t>
-  </si>
-  <si>
-    <t>Padmini</t>
-  </si>
-  <si>
-    <t>Padmini@23</t>
-  </si>
-  <si>
     <t>pbulnda@gmail.com</t>
   </si>
   <si>
@@ -465,11 +456,74 @@
   <si>
     <t>https://wwp--wdxuat.sandbox.my.site.com/WDX/s/login/?language=en_US</t>
   </si>
+  <si>
+    <t>vaishali.tomar@testingxperts.com</t>
+  </si>
+  <si>
+    <t>Testing123$</t>
+  </si>
+  <si>
+    <t>abhinav.srivastava@testingxperts.com</t>
+  </si>
+  <si>
+    <t>Testing@123</t>
+  </si>
+  <si>
+    <t>example.uat1@warrior.com</t>
+  </si>
+  <si>
+    <t>ExampleUat1!</t>
+  </si>
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>hello, this  a new message</t>
+  </si>
+  <si>
+    <t>Messageinput</t>
+  </si>
+  <si>
+    <t>search_text</t>
+  </si>
+  <si>
+    <t>this is a new message</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Military Branch</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Space Force</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Example UATWarrior1</t>
+  </si>
+  <si>
+    <t>ConnectionUser</t>
+  </si>
+  <si>
+    <t>Vaishali Tomar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -586,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -637,6 +691,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -644,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -700,6 +765,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -35626,22 +35692,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35663,36 +35737,135 @@
       <c r="G1" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G3" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F2" t="s">
-        <v>141</v>
+      <c r="C4" s="2" t="s">
+        <v>145</v>
       </c>
-      <c r="G2" t="s">
-        <v>142</v>
+      <c r="D4" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:pbulnda@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2" display="Testing@123"/>
     <hyperlink ref="E2" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="H3" r:id="rId9"/>
+    <hyperlink ref="H2" r:id="rId10"/>
+    <hyperlink ref="B4" r:id="rId11"/>
+    <hyperlink ref="C4" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
